--- a/Solina/Production/Input/GHI_2024-02-11.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-11.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2945.37</v>
+        <v>2945.83</v>
       </c>
       <c r="H2">
-        <v>6211.16</v>
+        <v>6212.94</v>
       </c>
       <c r="I2">
-        <v>726.8099999999999</v>
+        <v>726.63</v>
       </c>
       <c r="J2">
-        <v>739.75</v>
+        <v>736.54</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>739.75</v>
+        <v>736.54</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +872,19 @@
         <v>3.59</v>
       </c>
       <c r="I9">
-        <v>30.47</v>
+        <v>30.52</v>
       </c>
       <c r="J9">
         <v>4.79</v>
       </c>
       <c r="K9">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>94.45999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="I10">
-        <v>402.56</v>
+        <v>402.86</v>
       </c>
       <c r="J10">
-        <v>45.63</v>
+        <v>45.62</v>
       </c>
       <c r="K10">
-        <v>24.56</v>
+        <v>23.62</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.56</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>238.09</v>
+        <v>238.15</v>
       </c>
       <c r="I11">
-        <v>625.83</v>
+        <v>626.09</v>
       </c>
       <c r="J11">
-        <v>70.68000000000001</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="K11">
-        <v>61.03</v>
+        <v>59.54</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>61.03</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>363.27</v>
+        <v>363.34</v>
       </c>
       <c r="I12">
-        <v>729.79</v>
+        <v>729.99</v>
       </c>
       <c r="J12">
-        <v>84.95</v>
+        <v>84.93000000000001</v>
       </c>
       <c r="K12">
-        <v>91.7</v>
+        <v>90.83</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>91.7</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>449.15</v>
+        <v>449.21</v>
       </c>
       <c r="I13">
-        <v>781.53</v>
+        <v>781.7</v>
       </c>
       <c r="J13">
-        <v>92.90000000000001</v>
+        <v>92.88</v>
       </c>
       <c r="K13">
-        <v>112.29</v>
+        <v>112.3</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>112.29</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>485.16</v>
+        <v>485.22</v>
       </c>
       <c r="I14">
-        <v>800.21</v>
+        <v>800.37</v>
       </c>
       <c r="J14">
-        <v>95.92</v>
+        <v>95.89</v>
       </c>
       <c r="K14">
-        <v>121.29</v>
+        <v>121.31</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>121.29</v>
+        <v>121.31</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>467.26</v>
+        <v>467.33</v>
       </c>
       <c r="I15">
-        <v>791.17</v>
+        <v>791.35</v>
       </c>
       <c r="J15">
-        <v>94.43000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="K15">
-        <v>116.82</v>
+        <v>116.83</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>116.82</v>
+        <v>116.83</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>397.45</v>
+        <v>397.5</v>
       </c>
       <c r="I16">
-        <v>751.92</v>
+        <v>752.09</v>
       </c>
       <c r="J16">
-        <v>88.23</v>
+        <v>88.2</v>
       </c>
       <c r="K16">
-        <v>99.36</v>
+        <v>99.38</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>99.36</v>
+        <v>99.38</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>283.94</v>
+        <v>283.99</v>
       </c>
       <c r="I17">
-        <v>669.4400000000001</v>
+        <v>669.6</v>
       </c>
       <c r="J17">
-        <v>76.34999999999999</v>
+        <v>76.33</v>
       </c>
       <c r="K17">
-        <v>70.98999999999999</v>
+        <v>71</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>70.98999999999999</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,13 +1238,13 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>143.07</v>
+        <v>143.09</v>
       </c>
       <c r="I18">
-        <v>501.55</v>
+        <v>501.66</v>
       </c>
       <c r="J18">
-        <v>55.92</v>
+        <v>55.91</v>
       </c>
       <c r="K18">
         <v>35.77</v>
@@ -1282,19 +1282,19 @@
         <v>19.92</v>
       </c>
       <c r="I19">
-        <v>126.7</v>
+        <v>126.71</v>
       </c>
       <c r="J19">
         <v>17.01</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>5.06</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="20" spans="1:13">
